--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-01_beg.xlsx
@@ -444,7 +444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]   What's going on over here? I leave for a moment, and you two are already at each others’ throats?
+    <t xml:space="preserve">[name="Hoshiguma"]   What's going on over here? I leave for a moment, and you two are already at each others' throats?
 </t>
   </si>
   <si>
